--- a/Figures_Tables/Table4.xlsx
+++ b/Figures_Tables/Table4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Comorbidity</t>
   </si>
@@ -23,64 +23,58 @@
     <t xml:space="preserve">None reported</t>
   </si>
   <si>
+    <t xml:space="preserve">Multiple comorbidities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurological disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oncological disease</t>
+  </si>
+  <si>
     <t xml:space="preserve">No comorbidities</t>
   </si>
   <si>
-    <t xml:space="preserve">Neurological disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oncological disease</t>
+    <t xml:space="preserve">Cardiac insufficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preterm birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congenital or acquired immunosupression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asthma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obesity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic renal insufficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low body weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialisis</t>
   </si>
   <si>
     <t xml:space="preserve">Previous community-acquired pneumonia</t>
   </si>
   <si>
-    <t xml:space="preserve">Congenital or acquired immunosupression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preterm birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronic respiratory disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiac insufficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obesity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low body weight</t>
+    <t xml:space="preserve">Tuberculosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arterial hipertension</t>
   </si>
   <si>
     <t xml:space="preserve">Chronic Obstrucive Pulmonary Disease</t>
   </si>
   <si>
-    <t xml:space="preserve">Chronic renal insufficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asthma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronic liver disease</t>
-  </si>
-  <si>
     <t xml:space="preserve">Previous bronchiolitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arterial hipertension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute dialisis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuberculosis</t>
   </si>
 </sst>
 </file>
@@ -425,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -433,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -441,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -457,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -465,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -473,7 +467,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -481,7 +475,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -489,7 +483,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -497,7 +491,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -505,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -513,7 +507,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -521,7 +515,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +523,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -537,7 +531,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -545,7 +539,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -553,7 +547,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -561,7 +555,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -569,22 +563,6 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Figures_Tables/Table4.xlsx
+++ b/Figures_Tables/Table4.xlsx
@@ -35,21 +35,21 @@
     <t xml:space="preserve">No comorbidities</t>
   </si>
   <si>
+    <t xml:space="preserve">Preterm birth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cardiac insufficiency</t>
   </si>
   <si>
-    <t xml:space="preserve">Preterm birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congenital or acquired immunosupression</t>
+    <t xml:space="preserve">Congenital or acquired immunosuppression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes</t>
   </si>
   <si>
     <t xml:space="preserve">Asthma</t>
   </si>
   <si>
-    <t xml:space="preserve">Diabetes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Obesity</t>
   </si>
   <si>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">Tuberculosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Arterial hipertension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronic Obstrucive Pulmonary Disease</t>
+    <t xml:space="preserve">Arterial hypertension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic Obstructive Pulmonary Disease</t>
   </si>
   <si>
     <t xml:space="preserve">Previous bronchiolitis</t>
@@ -443,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -459,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -467,7 +467,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -483,7 +483,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">

--- a/Figures_Tables/Table4.xlsx
+++ b/Figures_Tables/Table4.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">Congenital or acquired immunosuppression</t>
   </si>
   <si>
+    <t xml:space="preserve">Asthma</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asthma</t>
   </si>
   <si>
     <t xml:space="preserve">Obesity</t>
@@ -443,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -451,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -467,7 +467,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -483,7 +483,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
